--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123012a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123012a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +582,27 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.6225705325445549</v>
+      </c>
+      <c r="D5">
+        <v>0.721845298947482</v>
+      </c>
+      <c r="E5">
+        <v>1.032265851336339</v>
+      </c>
+      <c r="F5">
+        <v>1.02770504714361</v>
+      </c>
+      <c r="G5">
+        <v>2.918398379567789</v>
+      </c>
+      <c r="H5">
+        <v>1.13137100824771</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -597,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6225705325445549</v>
+        <v>1.691548221207151</v>
       </c>
       <c r="D6">
-        <v>0.721845298947482</v>
+        <v>3.636617853425581</v>
       </c>
       <c r="E6">
-        <v>1.032265851336339</v>
+        <v>4.563169906033647</v>
       </c>
       <c r="F6">
-        <v>1.02770504714361</v>
+        <v>2.916588494381559</v>
       </c>
       <c r="G6">
-        <v>2.918398379567789</v>
+        <v>10.77201652080711</v>
       </c>
       <c r="H6">
-        <v>1.13137100824771</v>
+        <v>3.352312380114812</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,28 +638,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.691548221207151</v>
+        <v>1.477422324100298</v>
       </c>
       <c r="D7">
-        <v>3.636617853425581</v>
+        <v>1.735243542064515</v>
       </c>
       <c r="E7">
-        <v>4.563169906033647</v>
+        <v>3.610056257135057</v>
       </c>
       <c r="F7">
-        <v>2.916588494381559</v>
+        <v>1.239236832228146</v>
       </c>
       <c r="G7">
-        <v>10.77201652080711</v>
+        <v>6.939791003090233</v>
       </c>
       <c r="H7">
-        <v>3.352312380114812</v>
+        <v>1.447324993315594</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3.901299533957368</v>
+      </c>
+      <c r="D8">
+        <v>4.798984435317284</v>
+      </c>
+      <c r="E8">
+        <v>6.794104491646965</v>
+      </c>
+      <c r="F8">
+        <v>3.623630736400766</v>
+      </c>
+      <c r="G8">
+        <v>15.37915941770421</v>
+      </c>
+      <c r="H8">
+        <v>4.274308991713532</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -654,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.477422324100298</v>
+        <v>4.391897859387482</v>
       </c>
       <c r="D9">
-        <v>1.735243542064515</v>
+        <v>5.63855569003904</v>
       </c>
       <c r="E9">
-        <v>3.610056257135057</v>
+        <v>6.238366671550176</v>
       </c>
       <c r="F9">
-        <v>1.239236832228146</v>
+        <v>2.745077024715876</v>
       </c>
       <c r="G9">
-        <v>6.939791003090233</v>
+        <v>25.32192672186615</v>
       </c>
       <c r="H9">
-        <v>1.447324993315594</v>
+        <v>3.850030028327622</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -680,22 +716,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.901299533957368</v>
+        <v>3.517624281354117</v>
       </c>
       <c r="D10">
-        <v>4.798984435317284</v>
+        <v>3.842901281849252</v>
       </c>
       <c r="E10">
-        <v>6.794104491646965</v>
+        <v>9.424703664079962</v>
       </c>
       <c r="F10">
-        <v>3.623630736400766</v>
+        <v>2.774636926882627</v>
       </c>
       <c r="G10">
-        <v>15.37915941770421</v>
+        <v>25.40760524580665</v>
       </c>
       <c r="H10">
-        <v>4.274308991713532</v>
+        <v>2.885076500821473</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -706,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.391897859387482</v>
+        <v>6.098733207151978</v>
       </c>
       <c r="D11">
-        <v>5.63855569003904</v>
+        <v>6.065626151640044</v>
       </c>
       <c r="E11">
-        <v>6.238366671550176</v>
+        <v>16.37798788745482</v>
       </c>
       <c r="F11">
-        <v>2.745077024715876</v>
+        <v>6.039676395544411</v>
       </c>
       <c r="G11">
-        <v>25.32192672186615</v>
+        <v>25.18655248408374</v>
       </c>
       <c r="H11">
-        <v>3.850030028327622</v>
+        <v>7.306527501113716</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -732,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.517624281354117</v>
+        <v>2.20506865846207</v>
       </c>
       <c r="D12">
-        <v>3.842901281849252</v>
+        <v>2.576463664988947</v>
       </c>
       <c r="E12">
-        <v>9.424703664079962</v>
+        <v>5.734519126784722</v>
       </c>
       <c r="F12">
-        <v>2.774636926882627</v>
+        <v>1.841906583719173</v>
       </c>
       <c r="G12">
-        <v>25.40760524580665</v>
+        <v>9.941048635665274</v>
       </c>
       <c r="H12">
-        <v>2.885076500821473</v>
+        <v>2.180797617392375</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -758,22 +794,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.098733207151978</v>
+        <v>6.39188877229981</v>
       </c>
       <c r="D13">
-        <v>6.065626151640044</v>
+        <v>7.677257722074849</v>
       </c>
       <c r="E13">
-        <v>16.37798788745482</v>
+        <v>13.5310308817479</v>
       </c>
       <c r="F13">
-        <v>6.039676395544411</v>
+        <v>4.543461229361361</v>
       </c>
       <c r="G13">
-        <v>25.18655248408374</v>
+        <v>20.87235012024808</v>
       </c>
       <c r="H13">
-        <v>7.306527501113716</v>
+        <v>5.299216423469125</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -784,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.20506865846207</v>
+        <v>4.160369580314405</v>
       </c>
       <c r="D14">
-        <v>2.576463664988947</v>
+        <v>5.670640729332646</v>
       </c>
       <c r="E14">
-        <v>5.734519126784722</v>
+        <v>10.68321268454236</v>
       </c>
       <c r="F14">
-        <v>1.841906583719173</v>
+        <v>3.71408565986043</v>
       </c>
       <c r="G14">
-        <v>9.941048635665274</v>
+        <v>18.52688985522252</v>
       </c>
       <c r="H14">
-        <v>2.180797617392375</v>
+        <v>3.073205839272818</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -810,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.39188877229981</v>
+        <v>1.012444082947649</v>
       </c>
       <c r="D15">
-        <v>7.677257722074849</v>
+        <v>1.200138169517468</v>
       </c>
       <c r="E15">
-        <v>13.5310308817479</v>
+        <v>2.383729508042992</v>
       </c>
       <c r="F15">
-        <v>4.543461229361361</v>
+        <v>1.061424244481954</v>
       </c>
       <c r="G15">
-        <v>20.87235012024808</v>
+        <v>4.548064051976049</v>
       </c>
       <c r="H15">
-        <v>5.299216423469125</v>
+        <v>1.271053301774055</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.160369580314405</v>
+        <v>3.362443807115859</v>
       </c>
       <c r="D16">
-        <v>5.670640729332646</v>
+        <v>3.874420847705514</v>
       </c>
       <c r="E16">
-        <v>10.68321268454236</v>
+        <v>12.07195490565271</v>
       </c>
       <c r="F16">
-        <v>3.71408565986043</v>
+        <v>3.337034201408599</v>
       </c>
       <c r="G16">
-        <v>18.52688985522252</v>
+        <v>20.2932797779561</v>
       </c>
       <c r="H16">
-        <v>3.073205839272818</v>
+        <v>4.873165876539606</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -862,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.012444082947649</v>
+        <v>4.296172632962262</v>
       </c>
       <c r="D17">
-        <v>1.200138169517468</v>
+        <v>4.983560254236222</v>
       </c>
       <c r="E17">
-        <v>2.383729508042992</v>
+        <v>9.920672110280519</v>
       </c>
       <c r="F17">
-        <v>1.061424244481954</v>
+        <v>3.874597261955052</v>
       </c>
       <c r="G17">
-        <v>4.548064051976049</v>
+        <v>24.12670417298526</v>
       </c>
       <c r="H17">
-        <v>1.271053301774055</v>
+        <v>3.783104713074898</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -888,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.362443807115859</v>
+        <v>2.006441581780515</v>
       </c>
       <c r="D18">
-        <v>3.874420847705514</v>
+        <v>2.499503933429651</v>
       </c>
       <c r="E18">
-        <v>12.07195490565271</v>
+        <v>4.286360629148104</v>
       </c>
       <c r="F18">
-        <v>3.337034201408599</v>
+        <v>1.96153908611669</v>
       </c>
       <c r="G18">
-        <v>20.2932797779561</v>
+        <v>17.29990264552941</v>
       </c>
       <c r="H18">
-        <v>4.873165876539606</v>
+        <v>2.31366918877677</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -914,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.296172632962262</v>
+        <v>3.558658796240557</v>
       </c>
       <c r="D19">
-        <v>4.983560254236222</v>
+        <v>4.391536386850049</v>
       </c>
       <c r="E19">
-        <v>9.920672110280519</v>
+        <v>6.51911299313913</v>
       </c>
       <c r="F19">
-        <v>3.874597261955052</v>
+        <v>4.62920727200108</v>
       </c>
       <c r="G19">
-        <v>24.12670417298526</v>
+        <v>17.41155787052595</v>
       </c>
       <c r="H19">
-        <v>3.783104713074898</v>
+        <v>4.771694983614056</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -940,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.006441581780515</v>
+        <v>5.189316237821341</v>
       </c>
       <c r="D20">
-        <v>2.499503933429651</v>
+        <v>5.628213631069913</v>
       </c>
       <c r="E20">
-        <v>4.286360629148104</v>
+        <v>5.975720975766227</v>
       </c>
       <c r="F20">
-        <v>1.96153908611669</v>
+        <v>4.807754021328771</v>
       </c>
       <c r="G20">
-        <v>17.29990264552941</v>
+        <v>20.44000773519506</v>
       </c>
       <c r="H20">
-        <v>2.31366918877677</v>
+        <v>5.268609700243595</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -966,22 +1002,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.558658796240557</v>
+        <v>2.46233855930987</v>
       </c>
       <c r="D21">
-        <v>4.391536386850049</v>
+        <v>2.886568677800409</v>
       </c>
       <c r="E21">
-        <v>6.51911299313913</v>
+        <v>3.496004689453304</v>
       </c>
       <c r="F21">
-        <v>4.62920727200108</v>
+        <v>2.264522722158414</v>
       </c>
       <c r="G21">
-        <v>17.41155787052595</v>
+        <v>10.21433850740858</v>
       </c>
       <c r="H21">
-        <v>4.771694983614056</v>
+        <v>2.556518815787281</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -992,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.189316237821341</v>
+        <v>5.516767899715293</v>
       </c>
       <c r="D22">
-        <v>5.628213631069913</v>
+        <v>6.906488057658841</v>
       </c>
       <c r="E22">
-        <v>5.975720975766227</v>
+        <v>10.49816202543458</v>
       </c>
       <c r="F22">
-        <v>4.807754021328771</v>
+        <v>5.71627670494867</v>
       </c>
       <c r="G22">
-        <v>20.44000773519506</v>
+        <v>26.3093139105847</v>
       </c>
       <c r="H22">
-        <v>5.268609700243595</v>
+        <v>5.925524244662069</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1018,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.46233855930987</v>
+        <v>3.026622399476608</v>
       </c>
       <c r="D23">
-        <v>2.886568677800409</v>
+        <v>4.842595839162573</v>
       </c>
       <c r="E23">
-        <v>3.496004689453304</v>
+        <v>10.12991568288889</v>
       </c>
       <c r="F23">
-        <v>2.264522722158414</v>
+        <v>4.738186367802867</v>
       </c>
       <c r="G23">
-        <v>10.21433850740858</v>
+        <v>20.43806710373071</v>
       </c>
       <c r="H23">
-        <v>2.556518815787281</v>
+        <v>4.93529286570755</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1044,22 +1080,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.516767899715293</v>
+        <v>1.901099516449994</v>
       </c>
       <c r="D24">
-        <v>6.906488057658841</v>
+        <v>2.10684739114612</v>
       </c>
       <c r="E24">
-        <v>10.49816202543458</v>
+        <v>5.271434120010128</v>
       </c>
       <c r="F24">
-        <v>5.71627670494867</v>
+        <v>1.547676173376243</v>
       </c>
       <c r="G24">
-        <v>26.3093139105847</v>
+        <v>4.489260826260636</v>
       </c>
       <c r="H24">
-        <v>5.925524244662069</v>
+        <v>2.027812972638251</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1070,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.026622399476608</v>
+        <v>1.138431383462065</v>
       </c>
       <c r="D25">
-        <v>4.842595839162573</v>
+        <v>1.312207847357844</v>
       </c>
       <c r="E25">
-        <v>10.12991568288889</v>
+        <v>1.345036047811297</v>
       </c>
       <c r="F25">
-        <v>4.738186367802867</v>
+        <v>1.980380925383758</v>
       </c>
       <c r="G25">
-        <v>20.43806710373071</v>
+        <v>5.063165984782594</v>
       </c>
       <c r="H25">
-        <v>4.93529286570755</v>
+        <v>2.185759227108673</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1096,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.901099516449994</v>
+        <v>2.017752381821283</v>
       </c>
       <c r="D26">
-        <v>2.10684739114612</v>
+        <v>2.363979433214916</v>
       </c>
       <c r="E26">
-        <v>5.271434120010128</v>
+        <v>3.028886761009976</v>
       </c>
       <c r="F26">
-        <v>1.547676173376243</v>
+        <v>2.353801763774264</v>
       </c>
       <c r="G26">
-        <v>4.489260826260636</v>
+        <v>8.134816824076728</v>
       </c>
       <c r="H26">
-        <v>2.027812972638251</v>
+        <v>2.717828024072946</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1122,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.138431383462065</v>
+        <v>4.212985739646498</v>
       </c>
       <c r="D27">
-        <v>1.312207847357844</v>
+        <v>4.761653649926041</v>
       </c>
       <c r="E27">
-        <v>1.345036047811297</v>
+        <v>6.400242960470673</v>
       </c>
       <c r="F27">
-        <v>1.980380925383758</v>
+        <v>5.12107735201158</v>
       </c>
       <c r="G27">
-        <v>5.063165984782594</v>
+        <v>12.62930813330559</v>
       </c>
       <c r="H27">
-        <v>2.185759227108673</v>
+        <v>6.222148508439349</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1148,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.017752381821283</v>
+        <v>2.324126883376654</v>
       </c>
       <c r="D28">
-        <v>2.363979433214916</v>
+        <v>2.514598127270292</v>
       </c>
       <c r="E28">
-        <v>3.028886761009976</v>
+        <v>2.757903381560919</v>
       </c>
       <c r="F28">
-        <v>2.353801763774264</v>
+        <v>4.249900531203413</v>
       </c>
       <c r="G28">
-        <v>8.134816824076728</v>
+        <v>9.674902178844892</v>
       </c>
       <c r="H28">
-        <v>2.717828024072946</v>
+        <v>4.896323888331766</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1174,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4.212985739646498</v>
+        <v>1.71396081711816</v>
       </c>
       <c r="D29">
-        <v>4.761653649926041</v>
+        <v>2.007164759066476</v>
       </c>
       <c r="E29">
-        <v>6.400242960470673</v>
+        <v>1.756274130431716</v>
       </c>
       <c r="F29">
-        <v>5.12107735201158</v>
+        <v>3.585042076795437</v>
       </c>
       <c r="G29">
-        <v>12.62930813330559</v>
+        <v>9.053259200530787</v>
       </c>
       <c r="H29">
-        <v>6.222148508439349</v>
+        <v>3.899737782750605</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1200,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.324126883376654</v>
+        <v>1.28204559912102</v>
       </c>
       <c r="D30">
-        <v>2.514598127270292</v>
+        <v>1.850976705738055</v>
       </c>
       <c r="E30">
-        <v>2.757903381560919</v>
+        <v>1.133722319917171</v>
       </c>
       <c r="F30">
-        <v>4.249900531203413</v>
+        <v>4.219260898982084</v>
       </c>
       <c r="G30">
-        <v>9.674902178844892</v>
+        <v>8.780618488341833</v>
       </c>
       <c r="H30">
-        <v>4.896323888331766</v>
+        <v>4.689476394862153</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1226,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.71396081711816</v>
+        <v>2.11451658108435</v>
       </c>
       <c r="D31">
-        <v>2.007164759066476</v>
+        <v>2.960709007407067</v>
       </c>
       <c r="E31">
-        <v>1.756274130431716</v>
+        <v>1.855704256376142</v>
       </c>
       <c r="F31">
-        <v>3.585042076795437</v>
+        <v>5.680444339780957</v>
       </c>
       <c r="G31">
-        <v>9.053259200530787</v>
+        <v>15.97804170922538</v>
       </c>
       <c r="H31">
-        <v>3.899737782750605</v>
+        <v>6.283719331064095</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1252,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.28204559912102</v>
+        <v>2.86902605121477</v>
       </c>
       <c r="D32">
-        <v>1.850976705738055</v>
+        <v>4.94110042153655</v>
       </c>
       <c r="E32">
-        <v>1.133722319917171</v>
+        <v>2.594708285553125</v>
       </c>
       <c r="F32">
-        <v>4.219260898982084</v>
+        <v>11.46340581117722</v>
       </c>
       <c r="G32">
-        <v>8.780618488341833</v>
+        <v>22.22777767665367</v>
       </c>
       <c r="H32">
-        <v>4.689476394862153</v>
+        <v>12.5806855888634</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1278,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.11451658108435</v>
+        <v>1.915085242908444</v>
       </c>
       <c r="D33">
-        <v>2.960709007407067</v>
+        <v>2.64571497478676</v>
       </c>
       <c r="E33">
-        <v>1.855704256376142</v>
+        <v>1.661696418680048</v>
       </c>
       <c r="F33">
-        <v>5.680444339780957</v>
+        <v>7.220572637745574</v>
       </c>
       <c r="G33">
-        <v>15.97804170922538</v>
+        <v>11.83173806918779</v>
       </c>
       <c r="H33">
-        <v>6.283719331064095</v>
+        <v>8.07501365189108</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1304,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.86902605121477</v>
+        <v>1.694752324164272</v>
       </c>
       <c r="D34">
-        <v>4.94110042153655</v>
+        <v>2.029233207415957</v>
       </c>
       <c r="E34">
-        <v>2.594708285553125</v>
+        <v>2.478268424438712</v>
       </c>
       <c r="F34">
-        <v>11.46340581117722</v>
+        <v>1.797375223013265</v>
       </c>
       <c r="G34">
-        <v>22.22777767665367</v>
+        <v>6.869994071169373</v>
       </c>
       <c r="H34">
-        <v>12.5806855888634</v>
+        <v>2.024110738606687</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1330,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.915085242908444</v>
+        <v>3.869710059732244</v>
       </c>
       <c r="D35">
-        <v>2.64571497478676</v>
+        <v>4.643652071678692</v>
       </c>
       <c r="E35">
-        <v>1.661696418680048</v>
+        <v>5.435305030536318</v>
       </c>
       <c r="F35">
-        <v>7.220572637745574</v>
+        <v>5.774862768758549</v>
       </c>
       <c r="G35">
-        <v>11.83173806918779</v>
+        <v>20.75938044415999</v>
       </c>
       <c r="H35">
-        <v>8.07501365189108</v>
+        <v>6.640955034401905</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1356,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.694752324164272</v>
+        <v>4.334220828371222</v>
       </c>
       <c r="D36">
-        <v>2.029233207415957</v>
+        <v>5.083345415990939</v>
       </c>
       <c r="E36">
-        <v>2.478268424438712</v>
+        <v>6.688911376812235</v>
       </c>
       <c r="F36">
-        <v>1.797375223013265</v>
+        <v>4.659638372163284</v>
       </c>
       <c r="G36">
-        <v>6.869994071169373</v>
+        <v>14.62325838419579</v>
       </c>
       <c r="H36">
-        <v>2.024110738606687</v>
+        <v>5.519014700458689</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1382,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3.869710059732244</v>
+        <v>2.64715383685003</v>
       </c>
       <c r="D37">
-        <v>4.643652071678692</v>
+        <v>3.26298476417278</v>
       </c>
       <c r="E37">
-        <v>5.435305030536318</v>
+        <v>3.663145989138449</v>
       </c>
       <c r="F37">
-        <v>5.774862768758549</v>
+        <v>2.339237050598368</v>
       </c>
       <c r="G37">
-        <v>20.75938044415999</v>
+        <v>10.8071669577242</v>
       </c>
       <c r="H37">
-        <v>6.640955034401905</v>
+        <v>2.492244768349622</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1408,73 +1444,21 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>4.334220828371222</v>
+        <v>3.02723640907581</v>
       </c>
       <c r="D38">
-        <v>5.083345415990939</v>
+        <v>3.466788299854968</v>
       </c>
       <c r="E38">
-        <v>6.688911376812235</v>
+        <v>4.739527875703519</v>
       </c>
       <c r="F38">
-        <v>4.659638372163284</v>
+        <v>3.360114624763581</v>
       </c>
       <c r="G38">
-        <v>14.62325838419579</v>
+        <v>11.3310721158748</v>
       </c>
       <c r="H38">
-        <v>5.519014700458689</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>2.64715383685003</v>
-      </c>
-      <c r="D39">
-        <v>3.26298476417278</v>
-      </c>
-      <c r="E39">
-        <v>3.663145989138449</v>
-      </c>
-      <c r="F39">
-        <v>2.339237050598368</v>
-      </c>
-      <c r="G39">
-        <v>10.8071669577242</v>
-      </c>
-      <c r="H39">
-        <v>2.492244768349622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>3.02723640907581</v>
-      </c>
-      <c r="D40">
-        <v>3.466788299854968</v>
-      </c>
-      <c r="E40">
-        <v>4.739527875703519</v>
-      </c>
-      <c r="F40">
-        <v>3.360114624763581</v>
-      </c>
-      <c r="G40">
-        <v>11.3310721158748</v>
-      </c>
-      <c r="H40">
         <v>3.927663411602415</v>
       </c>
     </row>
